--- a/外部設計書_機能名 - 質問詳細+回答一覧.xlsx
+++ b/外部設計書_機能名 - 質問詳細+回答一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3EB2A7-85D0-4998-A237-4A0BDD7207FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AC140C-09B4-4AA3-8EA5-476116901A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1687,7 +1687,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ファイル選択（添付ファイル）</a:t>
+            <a:t>添付ファイル表示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2465,7 +2465,7 @@
   <dimension ref="A1:AN140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AU20" sqref="AU20"/>
+      <selection activeCell="BF29" sqref="BF29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
